--- a/members.xlsx
+++ b/members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\pmj_membership_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F390B6-1842-4BB9-B46E-33890C38B9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D3A77-70BB-4968-84F2-5A29D81D270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1EDB427D-FD65-4248-98F8-99BDB80F1746}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EDB427D-FD65-4248-98F8-99BDB80F1746}"/>
   </bookViews>
   <sheets>
     <sheet name="members" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Full Name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Payments</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -909,48 +915,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04D3683-6919-4FA0-9AB9-C7C51083FD01}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -961,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB998F2-93AE-4540-9601-7645EBD7A46A}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
